--- a/biology/Médecine/1500_en_santé_et_médecine/1500_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1500_en_santé_et_médecine/1500_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1500_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1500_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1500 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1500_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1500_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Date portée par le premier sceau du collège des médecins de Lyon[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Date portée par le premier sceau du collège des médecins de Lyon.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1500_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1500_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première césarienne connue réussie en Occident sur une femme vivante : un châtreur de porcs du bailliage de Thurgovie, en Suisse, accouche sa femme par la voie artificielle, les médecins et treize « ventrières » ayant déclaré la manœuvre impossible par la voie naturelle ; son épouse accouchera encore et on explique aujourd'hui la bonne récupération de l'opérée par le cas d'une « grossesse abdominale libérée sans incision utérine[2],[3] ».
-Vers 1500 : « la France, qui comptait approximativement dix-neuf millions d'habitants [à la veille de la peste noire] en 1340, n'en a plus que seize millions[4] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première césarienne connue réussie en Occident sur une femme vivante : un châtreur de porcs du bailliage de Thurgovie, en Suisse, accouche sa femme par la voie artificielle, les médecins et treize « ventrières » ayant déclaré la manœuvre impossible par la voie naturelle ; son épouse accouchera encore et on explique aujourd'hui la bonne récupération de l'opérée par le cas d'une « grossesse abdominale libérée sans incision utérine, ».
+Vers 1500 : « la France, qui comptait approximativement dix-neuf millions d'habitants [à la veille de la peste noire] en 1340, n'en a plus que seize millions ».</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1500_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1500_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +588,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hieronymus Brunschwig (c. 1450-1512), Liber de arte distillandi de simplicibus ou  Le Petit Livre de la Distillation (Kleines Destillierbuch), manuel de distillation écrit pour les apothicaires, premier de ce genre à être imprimé en Europe[5].
-Johann Tallat, Büchlein der Arznei, recueil de recettes médicinales par les plantes[6],[7].
-Première impression par Callierges et Vlastos à Venise des textes grecs de Galien[8], avant l'aldine des œuvres complètes qui paraîtra, également à Venise, en 1525[9].
-Impression à Lyon, chez Nicolas Wolff[10], de la Practica usualis de Valesco de Tarente (es), chirurgien et médecin portugais, ouvrage qui était déjà sorti des presses de Trechsel[11] et Huss en 1490[12],[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hieronymus Brunschwig (c. 1450-1512), Liber de arte distillandi de simplicibus ou  Le Petit Livre de la Distillation (Kleines Destillierbuch), manuel de distillation écrit pour les apothicaires, premier de ce genre à être imprimé en Europe.
+Johann Tallat, Büchlein der Arznei, recueil de recettes médicinales par les plantes,.
+Première impression par Callierges et Vlastos à Venise des textes grecs de Galien, avant l'aldine des œuvres complètes qui paraîtra, également à Venise, en 1525.
+Impression à Lyon, chez Nicolas Wolff, de la Practica usualis de Valesco de Tarente (es), chirurgien et médecin portugais, ouvrage qui était déjà sorti des presses de Trechsel et Huss en 1490,.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1500_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1500_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,13 +623,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16 janvier : Antonio Musa Brasavola (mort en 1555), médecin italien[14],[15].
-25 septembre : Michelangelo Biondo (it) (mort en 1565), médecin italien[16],[17].
-Walther Hermann Ryff (mort vers 1548), chirurgien[18].
-Bartolomeo Maranta (mort en 1571), médecin et botaniste italien[19],[20].
-Jean Cornario (mort en 1558), médecin et humaniste allemand[21].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16 janvier : Antonio Musa Brasavola (mort en 1555), médecin italien,.
+25 septembre : Michelangelo Biondo (it) (mort en 1565), médecin italien,.
+Walther Hermann Ryff (mort vers 1548), chirurgien.
+Bartolomeo Maranta (mort en 1571), médecin et botaniste italien,.
+Jean Cornario (mort en 1558), médecin et humaniste allemand.</t>
         </is>
       </c>
     </row>
